--- a/example_data/excel_example_PMC3136532.xlsx
+++ b/example_data/excel_example_PMC3136532.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://connectqutedu-my.sharepoint.com/personal/barnetta_qut_edu_au/Documents/fraud/baseline_tables/baseline/example_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="348" documentId="11_F25DC773A252ABDACC1048ED099E4FC05ADE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2B6D0FD9-057B-4E67-A355-A9B2116AFD95}"/>
+  <xr:revisionPtr revIDLastSave="352" documentId="11_F25DC773A252ABDACC1048ED099E4FC05ADE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{284BE835-9359-4F97-9191-F9C8935AD852}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PMCID = PMC3136532" sheetId="1" r:id="rId1"/>
@@ -171,11 +171,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -197,6 +196,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -465,7 +468,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -484,7 +487,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>9</v>
       </c>
     </row>
@@ -512,10 +515,10 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="7">
         <v>20</v>
       </c>
       <c r="C5" s="2">
@@ -524,7 +527,7 @@
       <c r="D5" s="2">
         <v>7.27</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="7">
         <v>20</v>
       </c>
       <c r="F5" s="2">
@@ -535,10 +538,10 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="7">
         <v>20</v>
       </c>
       <c r="C6" s="2">
@@ -547,7 +550,7 @@
       <c r="D6" s="2">
         <v>2.61</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="7">
         <v>20</v>
       </c>
       <c r="F6" s="2">
@@ -558,25 +561,25 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="8">
-        <v>20</v>
-      </c>
-      <c r="C7" s="6">
+      <c r="B7" s="7">
+        <v>20</v>
+      </c>
+      <c r="C7" s="5">
         <v>14</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="5">
         <v>10.42</v>
       </c>
-      <c r="E7" s="8">
-        <v>20</v>
-      </c>
-      <c r="F7" s="6">
+      <c r="E7" s="7">
+        <v>20</v>
+      </c>
+      <c r="F7" s="5">
         <v>15.05</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="5">
         <v>14.24</v>
       </c>
     </row>
@@ -598,24 +601,24 @@
       <c r="D9" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="7">
         <v>13</v>
       </c>
-      <c r="C10" s="8">
-        <v>20</v>
-      </c>
-      <c r="D10" s="8">
+      <c r="C10" s="7">
+        <v>20</v>
+      </c>
+      <c r="D10" s="7">
         <v>13</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="7">
         <v>20</v>
       </c>
     </row>
